--- a/graph/同時存在感のグラフ.xlsx
+++ b/graph/同時存在感のグラフ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojima\Documents\XRLab\3DMT\graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\3DMT\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962B66B-A168-48C1-A061-70813D3E434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B297C3B-7001-48DD-8DA6-04125EB8D93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E6032090-0A3C-4BF1-8084-C3F8DCEAEE99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6032090-0A3C-4BF1-8084-C3F8DCEAEE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -233,9 +229,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1281,18 +1275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4DF616-F941-40E2-B93B-03FBA93B861E}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1.6</v>
@@ -1305,7 +1299,7 @@
         <v>0.19023794623890991</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9">
         <v>2.3333333333333299</v>
@@ -1314,7 +1308,7 @@
         <v>0.61721339980000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>1.8</v>
@@ -1323,16 +1317,16 @@
         <v>0.86189160740000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" s="8"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -1355,7 +1349,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -1424,7 +1418,7 @@
         <v>4.8400000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -1447,7 +1441,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2</v>
       </c>
@@ -1516,7 +1510,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -1562,7 +1556,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2</v>
       </c>
@@ -1585,7 +1579,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>3</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -1677,7 +1671,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>AVERAGE(A24:A38)</f>
         <v>1.6</v>
@@ -1703,7 +1697,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D41">
         <f>SQRT(D40/14)</f>
         <v>0.73678839761300741</v>
@@ -1717,7 +1711,7 @@
         <v>0.86189160737133463</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D42">
         <f>D41/SQRT(15)</f>
         <v>0.19023794624226842</v>
